--- a/test1/Assaults.xlsx
+++ b/test1/Assaults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>__default__</t>
   </si>
@@ -94,10 +94,19 @@
     <t>20321+20322+20323</t>
   </si>
   <si>
+    <t>2061</t>
+  </si>
+  <si>
+    <t>2062</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
     <t>性别</t>
+  </si>
+  <si>
+    <t>1:"2011-2012-2013",2:"20211+20212-20221+20222",3:"20311+20312+20313"</t>
   </si>
 </sst>
 </file>
@@ -105,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -146,7 +155,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,14 +163,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,9 +177,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,39 +194,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,39 +261,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,25 +293,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,157 +455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,30 +484,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,31 +506,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,12 +536,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,130 +607,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6363636363636" defaultRowHeight="14.5"/>
@@ -1392,24 +1401,55 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="2:5">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" customFormat="1" spans="2:5">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="3:5">
-      <c r="C16" s="2" t="s">
+    <row r="14" s="2" customFormat="1" spans="1:7">
+      <c r="A14" s="2">
+        <v>101</v>
+      </c>
+      <c r="B14" s="2">
+        <v>101</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="2" t="s">
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:7">
+      <c r="A15" s="2">
+        <v>102</v>
+      </c>
+      <c r="B15" s="2">
+        <v>102</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="3:7">
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/test1/Assaults.xlsx
+++ b/test1/Assaults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>__default__</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>MaxAngle</t>
+  </si>
+  <si>
+    <t>ManaCost</t>
   </si>
   <si>
     <t>2011</t>
@@ -114,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -141,6 +144,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -148,22 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,7 +180,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,37 +188,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,8 +232,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,13 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -293,187 +296,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +487,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,15 +519,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,11 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,21 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -589,7 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,130 +610,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,8 +1074,8 @@
   <sheetPr/>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6363636363636" defaultRowHeight="14.5"/>
@@ -1118,13 +1121,15 @@
       <c r="K1" s="3">
         <v>90</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="3">
+        <v>0</v>
+      </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="14" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1157,6 +1162,9 @@
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
@@ -1193,7 +1201,9 @@
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
@@ -1212,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1235,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1255,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1275,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1295,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1315,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1335,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1355,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1375,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1398,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:7">
@@ -1418,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:7">
@@ -1438,18 +1448,18 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="3:7">
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
